--- a/config_7.6/fishbowl_shop.xlsx
+++ b/config_7.6/fishbowl_shop.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11111\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="746" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="746" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main|" sheetId="2" r:id="rId1"/>
@@ -17,90 +12,109 @@
     <sheet name="discounts|优惠物品" sheetId="20" r:id="rId3"/>
     <sheet name="freshs|刷新需要的道具" sheetId="21" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="115">
   <si>
     <t>id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_time|开售时间段</t>
+  </si>
+  <si>
+    <t>goods_num|普通物品数量(不重复)</t>
+  </si>
+  <si>
+    <t>discounts_num|优惠物品数量</t>
   </si>
   <si>
     <t>|备注</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>28800,36000,50400,64800,72000,79200,</t>
+  </si>
+  <si>
+    <t>按照权重进行全随机普通物品和优惠物品</t>
+  </si>
+  <si>
+    <t>重置时间到了就重新刷新道具</t>
+  </si>
+  <si>
+    <t>每次刷新的时候每个东西只能买一次</t>
+  </si>
+  <si>
+    <t>id|</t>
   </si>
   <si>
     <t>asset_type|</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>asset_count|</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>price|价格</t>
   </si>
   <si>
     <t>weight</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>id|</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照权重进行全随机普通物品和优惠物品</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置时间到了就重新刷新道具</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>price|价格</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods_num|普通物品数量(不重复)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次刷新的时候每个东西只能买一次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_time|开售时间段</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>discounts_num|优惠物品数量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>28800,36000,50400,64800,72000,79200,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>|原价</t>
+  </si>
+  <si>
+    <t>|售卖价格</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_feed</t>
+  </si>
+  <si>
+    <t>"prop_fishbowl_stars",50000</t>
   </si>
   <si>
     <t>prop_fishbowl_fry8</t>
   </si>
   <si>
+    <t>"jing_bi",75000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry9</t>
   </si>
   <si>
+    <t>"jing_bi",120000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry10</t>
   </si>
   <si>
+    <t>"jing_bi",150000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry11</t>
   </si>
   <si>
+    <t>"jing_bi",450000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry12</t>
   </si>
   <si>
+    <t>"jing_bi",750000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry13</t>
   </si>
   <si>
+    <t>"jing_bi",1200000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry14</t>
   </si>
   <si>
+    <t>"jing_bi",1500000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry15</t>
   </si>
   <si>
@@ -110,66 +124,138 @@
     <t>prop_fishbowl_fry17</t>
   </si>
   <si>
+    <t>"jing_bi",2250000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry18</t>
   </si>
   <si>
+    <t>"jing_bi",3000000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry19</t>
   </si>
   <si>
+    <t>"jing_bi",4500000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry20</t>
   </si>
   <si>
+    <t>"jing_bi",7500000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry21</t>
   </si>
   <si>
     <t>prop_fishbowl_fry22</t>
   </si>
   <si>
-    <t>|原价</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>|售卖价格</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>"prop_fishbowl_stars",750000</t>
+  </si>
+  <si>
+    <t>"prop_fishbowl_stars",1200000</t>
+  </si>
+  <si>
+    <t>"prop_fishbowl_stars",1500000</t>
+  </si>
+  <si>
+    <t>"prop_fishbowl_stars",4500000</t>
+  </si>
+  <si>
+    <t>"prop_fishbowl_stars",7500000</t>
+  </si>
+  <si>
+    <t>"prop_fishbowl_stars",12000000</t>
+  </si>
+  <si>
+    <t>"prop_fishbowl_stars",15000000</t>
+  </si>
+  <si>
+    <t>"prop_fishbowl_stars",22500000</t>
+  </si>
+  <si>
+    <t>"prop_fishbowl_stars",30000000</t>
+  </si>
+  <si>
+    <t>"prop_fishbowl_stars",45000000</t>
+  </si>
+  <si>
+    <t>"prop_fishbowl_stars",75000000</t>
   </si>
   <si>
     <t>prop_fishbowl_fry_fragment8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",2600</t>
   </si>
   <si>
     <t>prop_fishbowl_fry_fragment9</t>
   </si>
   <si>
+    <t>"jing_bi",4000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry_fragment10</t>
   </si>
   <si>
+    <t>"jing_bi",5000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry_fragment11</t>
   </si>
   <si>
+    <t>"jing_bi",15000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry_fragment12</t>
   </si>
   <si>
+    <t>"jing_bi",25000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry_fragment13</t>
   </si>
   <si>
+    <t>"jing_bi",40000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry_fragment14</t>
   </si>
   <si>
+    <t>"jing_bi",50000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry_fragment15</t>
   </si>
   <si>
+    <t>"jing_bi",24000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry_fragment16</t>
   </si>
   <si>
+    <t>"jing_bi",30000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry_fragment17</t>
   </si>
   <si>
+    <t>"jing_bi",45000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry_fragment18</t>
   </si>
   <si>
+    <t>"jing_bi",60000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry_fragment19</t>
   </si>
   <si>
+    <t>"jing_bi",90000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry_fragment20</t>
   </si>
   <si>
@@ -182,9 +268,15 @@
     <t>prop_fishbowl_fry_fragment23</t>
   </si>
   <si>
+    <t>"jing_bi",56250</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry_fragment24</t>
   </si>
   <si>
+    <t>"jing_bi",93750</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry_fragment25</t>
   </si>
   <si>
@@ -203,130 +295,12 @@
     <t>prop_fishbowl_fry_fragment30</t>
   </si>
   <si>
+    <t>"jing_bi",225000</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry_fragment31</t>
   </si>
   <si>
-    <t>prop_fishbowl_fry_fragment32</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_feed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_fishbowl_stars",50000</t>
-  </si>
-  <si>
-    <t>"jing_bi",75000</t>
-  </si>
-  <si>
-    <t>"jing_bi",120000</t>
-  </si>
-  <si>
-    <t>"jing_bi",150000</t>
-  </si>
-  <si>
-    <t>"jing_bi",450000</t>
-  </si>
-  <si>
-    <t>"jing_bi",750000</t>
-  </si>
-  <si>
-    <t>"jing_bi",1200000</t>
-  </si>
-  <si>
-    <t>"jing_bi",1500000</t>
-  </si>
-  <si>
-    <t>"jing_bi",2250000</t>
-  </si>
-  <si>
-    <t>"jing_bi",3000000</t>
-  </si>
-  <si>
-    <t>"jing_bi",4500000</t>
-  </si>
-  <si>
-    <t>"jing_bi",7500000</t>
-  </si>
-  <si>
-    <t>"prop_fishbowl_stars",750000</t>
-  </si>
-  <si>
-    <t>"prop_fishbowl_stars",1200000</t>
-  </si>
-  <si>
-    <t>"prop_fishbowl_stars",1500000</t>
-  </si>
-  <si>
-    <t>"prop_fishbowl_stars",4500000</t>
-  </si>
-  <si>
-    <t>"prop_fishbowl_stars",7500000</t>
-  </si>
-  <si>
-    <t>"prop_fishbowl_stars",12000000</t>
-  </si>
-  <si>
-    <t>"prop_fishbowl_stars",15000000</t>
-  </si>
-  <si>
-    <t>"prop_fishbowl_stars",22500000</t>
-  </si>
-  <si>
-    <t>"prop_fishbowl_stars",30000000</t>
-  </si>
-  <si>
-    <t>"prop_fishbowl_stars",45000000</t>
-  </si>
-  <si>
-    <t>"prop_fishbowl_stars",75000000</t>
-  </si>
-  <si>
-    <t>"jing_bi",2600</t>
-  </si>
-  <si>
-    <t>"jing_bi",4000</t>
-  </si>
-  <si>
-    <t>"jing_bi",5000</t>
-  </si>
-  <si>
-    <t>"jing_bi",15000</t>
-  </si>
-  <si>
-    <t>"jing_bi",25000</t>
-  </si>
-  <si>
-    <t>"jing_bi",40000</t>
-  </si>
-  <si>
-    <t>"jing_bi",50000</t>
-  </si>
-  <si>
-    <t>"jing_bi",24000</t>
-  </si>
-  <si>
-    <t>"jing_bi",30000</t>
-  </si>
-  <si>
-    <t>"jing_bi",45000</t>
-  </si>
-  <si>
-    <t>"jing_bi",60000</t>
-  </si>
-  <si>
-    <t>"jing_bi",90000</t>
-  </si>
-  <si>
-    <t>"jing_bi",56250</t>
-  </si>
-  <si>
-    <t>"jing_bi",93750</t>
-  </si>
-  <si>
-    <t>"jing_bi",225000</t>
-  </si>
-  <si>
     <t>"jing_bi",300000</t>
   </si>
   <si>
@@ -375,43 +349,32 @@
     <t>"prop_fishbowl_stars",3000000</t>
   </si>
   <si>
+    <t>|</t>
+  </si>
+  <si>
     <t>"jing_bi",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"prop_fishbowl_stars",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>|</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>id|</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>asset_type|</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>asset_count|</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>刷新第一次用id=1的道具，达到上限后用最后一个配置刷新</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>jing_bi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,14 +386,12 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -438,46 +399,173 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,12 +586,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -526,27 +800,269 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -554,27 +1070,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="55">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 4" xfId="1"/>
-    <cellStyle name="常规 4 2" xfId="6"/>
-    <cellStyle name="常规 6" xfId="5"/>
-    <cellStyle name="好 2" xfId="3"/>
-    <cellStyle name="适中 2" xfId="4"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="13"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="好 2" xfId="28"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="29" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="30" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="31" builtinId="24"/>
+    <cellStyle name="汇总" xfId="32" builtinId="25"/>
+    <cellStyle name="好" xfId="33" builtinId="26"/>
+    <cellStyle name="适中" xfId="34" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="36" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="37" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="39" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="40" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="41" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="42" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="45" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="47" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
+    <cellStyle name="适中 2" xfId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="52"/>
+    <cellStyle name="常规 4" xfId="53"/>
+    <cellStyle name="常规 4 2" xfId="54"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -832,68 +1395,68 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="59.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="1" customWidth="1"/>
-    <col min="11" max="13" width="20.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="28.875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="59.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="2" customWidth="1"/>
+    <col min="11" max="13" width="20.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="28.875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="42.75" customHeight="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -904,7 +1467,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" ht="16.5" spans="2:15">
       <c r="B3" s="3"/>
       <c r="E3" s="3" t="s">
         <v>7</v>
@@ -914,570 +1477,571 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" ht="16.5" spans="2:15">
       <c r="B4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="16.5" spans="2:15">
       <c r="B5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7">
       <c r="B6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7">
       <c r="B7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7">
       <c r="B8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7">
       <c r="B9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7">
       <c r="B10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7">
       <c r="B11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7">
       <c r="B12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7">
       <c r="B13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7">
       <c r="B14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7">
       <c r="B15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7">
       <c r="B16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7">
       <c r="B17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7">
       <c r="B18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7">
       <c r="B19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7">
       <c r="B20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7">
       <c r="B21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7">
       <c r="B22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7">
       <c r="B23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7">
       <c r="B24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7">
       <c r="B25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7">
       <c r="B26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7">
       <c r="B27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7">
       <c r="B28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7">
       <c r="B29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7">
       <c r="B30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7">
       <c r="B31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7">
       <c r="B32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7">
       <c r="B33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7">
       <c r="B34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7">
       <c r="B35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7">
       <c r="B36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7">
       <c r="B37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7">
       <c r="B38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7">
       <c r="B39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7">
       <c r="B40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7">
       <c r="B41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7">
       <c r="B42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7">
       <c r="B43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7">
       <c r="B44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7">
       <c r="B45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7">
       <c r="B46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7">
       <c r="B47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7">
       <c r="B48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7">
       <c r="B49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7">
       <c r="B50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7">
       <c r="B51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7">
       <c r="B52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7">
       <c r="B53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7">
       <c r="B54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7">
       <c r="B55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7">
       <c r="B56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7">
       <c r="B57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7">
       <c r="B58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7">
       <c r="B59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7">
       <c r="B60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7">
       <c r="B61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7">
       <c r="B62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7">
       <c r="B63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7">
       <c r="B64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:7">
       <c r="B65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:7">
       <c r="B66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:7">
       <c r="B67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:7">
       <c r="B68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:7">
       <c r="B69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7">
       <c r="B70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7">
       <c r="B71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:7">
       <c r="B72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7">
       <c r="B73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7">
       <c r="B74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:7">
       <c r="B75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7">
       <c r="B76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:7">
       <c r="B77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7">
       <c r="B78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:7">
       <c r="B79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:7">
       <c r="B80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:7">
       <c r="B81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:7">
       <c r="B82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:7">
       <c r="B83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:7">
       <c r="B84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:7">
       <c r="B85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:7">
       <c r="B86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:7">
       <c r="B87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:7">
       <c r="B88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:7">
       <c r="B89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:7">
       <c r="B90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:7">
       <c r="B91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:7">
       <c r="B92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:7">
       <c r="B93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:7">
       <c r="B94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:7">
       <c r="B95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:7">
       <c r="B96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:7">
       <c r="B97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:7">
       <c r="B98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:7">
       <c r="B99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:7">
       <c r="B100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:7">
       <c r="B101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="I82" sqref="I33:I82"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="16.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10" style="2" customWidth="1"/>
+    <col min="8" max="9" width="20.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="28.875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" ht="42.75" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="1">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="1">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2">
         <v>2500</v>
       </c>
       <c r="F2" s="3"/>
@@ -1485,467 +2049,467 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2">
         <v>50</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>50000</v>
       </c>
       <c r="G3" s="3">
         <f>F3*1.5</f>
         <v>75000</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <f>INT(E3/2)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2">
         <v>50</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>80000</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G17" si="0">F4*1.5</f>
+        <f t="shared" ref="G4:G18" si="0">F4*1.5</f>
         <v>120000</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <f t="shared" ref="I4:I17" si="1">INT(E4/2)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2">
         <v>50</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>100000</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
         <v>50</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>300000</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2">
         <v>50</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>500000</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>750000</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="1">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2">
         <v>50</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>800000</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2">
         <v>50</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>1000000</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2">
         <v>50</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>800000</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2">
         <v>50</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>1000000</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2">
         <v>50</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>1500000</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
         <v>2250000</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2">
         <v>50</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>2000000</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
         <v>3000000</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2">
         <v>50</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>3000000</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
         <v>4500000</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="2">
         <v>50</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>5000000</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
         <v>7500000</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2">
         <v>50</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>3000000</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
         <v>4500000</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="1">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2">
         <v>50</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>5000000</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
         <v>7500000</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2">
         <v>100</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>500000</v>
       </c>
       <c r="G18" s="3">
-        <f>F18*1.5</f>
+        <f t="shared" si="0"/>
         <v>750000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="2">
         <v>100</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>800000</v>
       </c>
       <c r="G19" s="3">
@@ -1953,23 +2517,23 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="2">
         <v>100</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>1000000</v>
       </c>
       <c r="G20" s="3">
@@ -1977,23 +2541,23 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="2">
         <v>100</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>3000000</v>
       </c>
       <c r="G21" s="3">
@@ -2001,23 +2565,23 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="2">
         <v>100</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>5000000</v>
       </c>
       <c r="G22" s="3">
@@ -2025,23 +2589,23 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="2">
         <v>100</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>8000000</v>
       </c>
       <c r="G23" s="3">
@@ -2049,23 +2613,23 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2">
         <v>100</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>10000000</v>
       </c>
       <c r="G24" s="3">
@@ -2073,23 +2637,23 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="B25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="2">
         <v>100</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>8000000</v>
       </c>
       <c r="G25" s="3">
@@ -2097,23 +2661,23 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="B26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="2">
         <v>100</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>10000000</v>
       </c>
       <c r="G26" s="3">
@@ -2121,23 +2685,23 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="2">
         <v>100</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>15000000</v>
       </c>
       <c r="G27" s="3">
@@ -2145,23 +2709,23 @@
         <v>22500000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="2">
         <v>100</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>20000000</v>
       </c>
       <c r="G28" s="3">
@@ -2169,23 +2733,23 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="B29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="2">
         <v>100</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>30000000</v>
       </c>
       <c r="G29" s="3">
@@ -2193,23 +2757,23 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="B30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="2">
         <v>100</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>50000000</v>
       </c>
       <c r="G30" s="3">
@@ -2217,23 +2781,23 @@
         <v>75000000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="B31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="2">
         <v>100</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>30000000</v>
       </c>
       <c r="G31" s="3">
@@ -2241,23 +2805,23 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="2">
         <v>100</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>50000000</v>
       </c>
       <c r="G32" s="3">
@@ -2265,20 +2829,20 @@
         <v>75000000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="1">
-        <v>5</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="1">
+        <v>55</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="2">
         <v>100</v>
       </c>
       <c r="F33" s="3">
@@ -2288,20 +2852,20 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="1">
-        <v>5</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="1">
+        <v>57</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="2">
         <v>100</v>
       </c>
       <c r="F34" s="3">
@@ -2311,20 +2875,20 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="1">
-        <v>5</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="1">
+        <v>59</v>
+      </c>
+      <c r="C35" s="2">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="2">
         <v>100</v>
       </c>
       <c r="F35" s="3">
@@ -2334,20 +2898,20 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="1">
-        <v>5</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="1">
+        <v>61</v>
+      </c>
+      <c r="C36" s="2">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="2">
         <v>100</v>
       </c>
       <c r="F36" s="3">
@@ -2358,20 +2922,20 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="1">
-        <v>5</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="1">
+        <v>63</v>
+      </c>
+      <c r="C37" s="2">
+        <v>5</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2">
         <v>100</v>
       </c>
       <c r="F37" s="3">
@@ -2381,20 +2945,20 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="1">
-        <v>5</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="1">
+        <v>65</v>
+      </c>
+      <c r="C38" s="2">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="2">
         <v>100</v>
       </c>
       <c r="F38" s="3">
@@ -2404,20 +2968,20 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="1">
-        <v>5</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="1">
+        <v>67</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="2">
         <v>100</v>
       </c>
       <c r="F39" s="3">
@@ -2427,20 +2991,20 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="1">
-        <v>5</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" s="1">
+        <v>69</v>
+      </c>
+      <c r="C40" s="2">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="2">
         <v>50</v>
       </c>
       <c r="F40" s="3">
@@ -2451,20 +3015,20 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="1">
-        <v>5</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" s="1">
+        <v>71</v>
+      </c>
+      <c r="C41" s="2">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="2">
         <v>50</v>
       </c>
       <c r="F41" s="3">
@@ -2475,20 +3039,20 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="1">
-        <v>5</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" s="1">
+        <v>73</v>
+      </c>
+      <c r="C42" s="2">
+        <v>5</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="2">
         <v>50</v>
       </c>
       <c r="F42" s="3">
@@ -2499,20 +3063,20 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="1">
-        <v>5</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="1">
+        <v>75</v>
+      </c>
+      <c r="C43" s="2">
+        <v>5</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="2">
         <v>50</v>
       </c>
       <c r="F43" s="3">
@@ -2523,20 +3087,20 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="1">
-        <v>5</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="1">
+        <v>77</v>
+      </c>
+      <c r="C44" s="2">
+        <v>5</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="2">
         <v>50</v>
       </c>
       <c r="F44" s="3">
@@ -2547,20 +3111,20 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="1">
-        <v>5</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="1">
+        <v>79</v>
+      </c>
+      <c r="C45" s="2">
+        <v>5</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="2">
         <v>40</v>
       </c>
       <c r="F45" s="3">
@@ -2571,20 +3135,20 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="1">
-        <v>5</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="1">
+        <v>80</v>
+      </c>
+      <c r="C46" s="2">
+        <v>5</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="2">
         <v>40</v>
       </c>
       <c r="F46" s="3">
@@ -2595,20 +3159,20 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="1">
-        <v>5</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E47" s="1">
+        <v>81</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="2">
         <v>40</v>
       </c>
       <c r="F47" s="3">
@@ -2619,20 +3183,20 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="1">
-        <v>5</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="1">
+        <v>82</v>
+      </c>
+      <c r="C48" s="2">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="2">
         <v>15</v>
       </c>
       <c r="F48" s="3">
@@ -2643,20 +3207,20 @@
         <v>56250</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="1">
-        <v>5</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" s="1">
+        <v>84</v>
+      </c>
+      <c r="C49" s="2">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="2">
         <v>15</v>
       </c>
       <c r="F49" s="3">
@@ -2667,44 +3231,44 @@
         <v>93750</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="1">
-        <v>5</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="1">
-        <v>15</v>
+        <v>86</v>
+      </c>
+      <c r="C50" s="2">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2</v>
       </c>
       <c r="F50" s="3">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="G50" s="3">
         <f t="shared" si="3"/>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="1">
-        <v>5</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="1">
+        <v>87</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="2">
         <v>5</v>
       </c>
       <c r="F51" s="3">
@@ -2715,20 +3279,20 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="1">
-        <v>5</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="1">
+        <v>88</v>
+      </c>
+      <c r="C52" s="2">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="2">
         <v>5</v>
       </c>
       <c r="F52" s="3">
@@ -2739,20 +3303,20 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="1">
-        <v>5</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53" s="1">
+        <v>89</v>
+      </c>
+      <c r="C53" s="2">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="2">
         <v>5</v>
       </c>
       <c r="F53" s="3">
@@ -2763,20 +3327,20 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="1">
-        <v>5</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E54" s="1">
+        <v>90</v>
+      </c>
+      <c r="C54" s="2">
+        <v>5</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="2">
         <v>5</v>
       </c>
       <c r="F54" s="3">
@@ -2787,20 +3351,20 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="1">
-        <v>5</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" s="1">
+        <v>91</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="2">
         <v>5</v>
       </c>
       <c r="F55" s="3">
@@ -2811,20 +3375,20 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="1">
-        <v>5</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" s="1">
+        <v>93</v>
+      </c>
+      <c r="C56" s="2">
+        <v>5</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="2">
         <v>2</v>
       </c>
       <c r="F56" s="3">
@@ -2835,518 +3399,518 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="1">
-        <v>5</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="C57" s="2">
+        <v>5</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="2">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>16660</v>
+      </c>
+      <c r="G57" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="3">
+        <v>58</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="2">
+        <v>5</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="2">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>26660</v>
+      </c>
+      <c r="G58" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="3">
+        <v>59</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="2">
+        <v>5</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="2">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>33330</v>
+      </c>
+      <c r="G59" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="3">
+        <v>60</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="2">
+        <v>5</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="2">
+        <v>200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G60" s="3">
+        <f>F60*1.5</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="3">
+        <v>61</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="2">
+        <v>200</v>
+      </c>
+      <c r="F61" s="3">
+        <v>166660</v>
+      </c>
+      <c r="G61" s="3">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="3">
         <v>62</v>
       </c>
-      <c r="E57" s="1">
-        <v>2</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="B62" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="2">
+        <v>5</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="2">
+        <v>200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>266660</v>
+      </c>
+      <c r="G62" s="3">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="3">
+        <v>63</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="2">
+        <v>5</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" s="2">
+        <v>200</v>
+      </c>
+      <c r="F63" s="3">
+        <v>333330</v>
+      </c>
+      <c r="G63" s="3">
         <v>500000</v>
       </c>
-      <c r="G57" s="3">
-        <f t="shared" si="3"/>
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
-        <v>57</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" s="1">
-        <v>5</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" s="1">
-        <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>16660</v>
-      </c>
-      <c r="G58" s="3">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>58</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="1">
-        <v>5</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" s="1">
-        <v>200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>26660</v>
-      </c>
-      <c r="G59" s="3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
-        <v>59</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60" s="1">
-        <v>5</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E60" s="1">
-        <v>200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>33330</v>
-      </c>
-      <c r="G60" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
-        <v>60</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" s="1">
-        <v>5</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E61" s="1">
-        <v>200</v>
-      </c>
-      <c r="F61" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G61" s="3">
-        <f>F61*1.5</f>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
-        <v>61</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" s="1">
-        <v>5</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E62" s="1">
-        <v>200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>166660</v>
-      </c>
-      <c r="G62" s="3">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
-        <v>62</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C63" s="1">
-        <v>5</v>
-      </c>
-      <c r="D63" s="1" t="s">
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="3">
+        <v>64</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="2">
+        <v>5</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="2">
         <v>100</v>
       </c>
-      <c r="E63" s="1">
-        <v>200</v>
-      </c>
-      <c r="F63" s="3">
-        <v>266660</v>
-      </c>
-      <c r="G63" s="3">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
-        <v>63</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="1">
-        <v>5</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" s="1">
-        <v>200</v>
-      </c>
       <c r="F64" s="3">
-        <v>333330</v>
+        <v>160000</v>
       </c>
       <c r="G64" s="3">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+        <f>F64*1.5</f>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" s="1">
-        <v>5</v>
-      </c>
-      <c r="D65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="2">
+        <v>5</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="2">
         <v>100</v>
       </c>
       <c r="F65" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="G65" s="3">
         <f>F65*1.5</f>
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66" s="1">
-        <v>5</v>
-      </c>
-      <c r="D66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="2">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="2">
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="G66" s="3">
         <f>F66*1.5</f>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="1">
-        <v>5</v>
-      </c>
-      <c r="D67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="2">
+        <v>5</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="2">
         <v>100</v>
       </c>
       <c r="F67" s="3">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="G67" s="3">
         <f>F67*1.5</f>
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" s="1">
-        <v>5</v>
-      </c>
-      <c r="D68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="2">
+        <v>5</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="2">
         <v>100</v>
       </c>
       <c r="F68" s="3">
-        <v>400000</v>
+        <v>600000</v>
       </c>
       <c r="G68" s="3">
-        <f>F68*1.5</f>
+        <f t="shared" ref="G68:G81" si="4">F68*1.5</f>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="3">
+        <v>69</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="2">
+        <v>5</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="2">
+        <v>80</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="4"/>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="3">
+        <v>70</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="2">
+        <v>5</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" s="2">
+        <v>80</v>
+      </c>
+      <c r="F70" s="3">
         <v>600000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
-        <v>68</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C69" s="1">
-        <v>5</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E69" s="1">
-        <v>100</v>
-      </c>
-      <c r="F69" s="3">
-        <v>600000</v>
-      </c>
-      <c r="G69" s="3">
-        <f t="shared" ref="G69:G82" si="4">F69*1.5</f>
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
-        <v>69</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C70" s="1">
-        <v>5</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E70" s="1">
-        <v>80</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1000000</v>
       </c>
       <c r="G70" s="3">
         <f t="shared" si="4"/>
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="1">
-        <v>5</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E71" s="1">
+        <v>81</v>
+      </c>
+      <c r="C71" s="2">
+        <v>5</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="2">
         <v>80</v>
       </c>
       <c r="F71" s="3">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="G71" s="3">
         <f t="shared" si="4"/>
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C72" s="1">
-        <v>5</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E72" s="1">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="C72" s="2">
+        <v>5</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" s="2">
+        <v>30</v>
       </c>
       <c r="F72" s="3">
-        <v>1000000</v>
+        <v>375000</v>
       </c>
       <c r="G72" s="3">
         <f t="shared" si="4"/>
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+        <v>562500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C73" s="1">
-        <v>5</v>
-      </c>
-      <c r="D73" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="2">
+        <v>5</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="2">
         <v>30</v>
       </c>
       <c r="F73" s="3">
-        <v>375000</v>
+        <v>625000</v>
       </c>
       <c r="G73" s="3">
         <f t="shared" si="4"/>
-        <v>562500</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+        <v>937500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="3">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C74" s="1">
-        <v>5</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E74" s="1">
-        <v>30</v>
+        <v>86</v>
+      </c>
+      <c r="C74" s="2">
+        <v>5</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" s="2">
+        <v>5</v>
       </c>
       <c r="F74" s="3">
-        <v>625000</v>
+        <v>5000000</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" si="4"/>
-        <v>937500</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="3">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C75" s="1">
-        <v>5</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75" s="1">
-        <v>30</v>
+        <v>87</v>
+      </c>
+      <c r="C75" s="2">
+        <v>5</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="2">
+        <v>10</v>
       </c>
       <c r="F75" s="3">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="G75" s="3">
         <f t="shared" si="4"/>
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C76" s="1">
-        <v>5</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" s="1">
+        <v>88</v>
+      </c>
+      <c r="C76" s="2">
+        <v>5</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="2">
         <v>10</v>
       </c>
       <c r="F76" s="3">
-        <v>500000</v>
+        <v>800000</v>
       </c>
       <c r="G76" s="3">
         <f t="shared" si="4"/>
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C77" s="1">
-        <v>5</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E77" s="1">
+        <v>89</v>
+      </c>
+      <c r="C77" s="2">
+        <v>5</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" s="2">
         <v>10</v>
       </c>
       <c r="F77" s="3">
-        <v>800000</v>
+        <v>1000000</v>
       </c>
       <c r="G77" s="3">
         <f t="shared" si="4"/>
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C78" s="1">
-        <v>5</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E78" s="1">
+        <v>90</v>
+      </c>
+      <c r="C78" s="2">
+        <v>5</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="2">
         <v>10</v>
       </c>
       <c r="F78" s="3">
@@ -3357,180 +3921,142 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C79" s="1">
-        <v>5</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E79" s="1">
+        <v>91</v>
+      </c>
+      <c r="C79" s="2">
+        <v>5</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" s="2">
         <v>10</v>
       </c>
       <c r="F79" s="3">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="G79" s="3">
         <f t="shared" si="4"/>
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C80" s="1">
-        <v>5</v>
-      </c>
-      <c r="D80" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="2">
+        <v>5</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E80" s="1">
-        <v>10</v>
+      <c r="E80" s="2">
+        <v>5</v>
       </c>
       <c r="F80" s="3">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="G80" s="3">
         <f t="shared" si="4"/>
-        <v>2250000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
-        <v>80</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C81" s="1">
-        <v>5</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E81" s="1">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="G81" s="3">
-        <f t="shared" si="4"/>
         <v>3000000</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
-        <v>81</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C82" s="1">
-        <v>5</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E82" s="1">
-        <v>5</v>
-      </c>
-      <c r="F82" s="3">
-        <v>5000000</v>
-      </c>
-      <c r="G82" s="3">
-        <f t="shared" si="4"/>
-        <v>7500000</v>
-      </c>
+    <row r="81" spans="1:7">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="1" customWidth="1"/>
-    <col min="11" max="13" width="20.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="28.875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="16.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="2" customWidth="1"/>
+    <col min="11" max="13" width="20.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="28.875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="42.75" customHeight="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="str">
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="str">
         <f>CONCATENATE($H$4,F2)</f>
         <v>"jing_bi",50000</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>50</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>50000</v>
       </c>
       <c r="G2" s="3">
@@ -3540,51 +4066,51 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" ht="16.5" spans="1:15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="str">
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="str">
         <f t="shared" ref="D3:D16" si="0">CONCATENATE($H$4,F3)</f>
         <v>"jing_bi",80000</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>50</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>80000</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G16" si="1">F3*1.5</f>
+        <f t="shared" ref="G3:G17" si="1">F3*1.5</f>
         <v>120000</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" ht="16.5" spans="1:15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="str">
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>"jing_bi",100000</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>50</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>100000</v>
       </c>
       <c r="G4" s="3">
@@ -3597,24 +4123,24 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="str">
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>"jing_bi",300000</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>50</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>300000</v>
       </c>
       <c r="G5" s="3">
@@ -3625,24 +4151,24 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="str">
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>"jing_bi",500000</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>50</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>500000</v>
       </c>
       <c r="G6" s="3">
@@ -3650,24 +4176,24 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="str">
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>"jing_bi",800000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>50</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>800000</v>
       </c>
       <c r="G7" s="3">
@@ -3675,24 +4201,24 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="str">
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>"jing_bi",1000000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>50</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>1000000</v>
       </c>
       <c r="G8" s="3">
@@ -3700,24 +4226,24 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="str">
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>"jing_bi",800000</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>50</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>800000</v>
       </c>
       <c r="G9" s="3">
@@ -3725,24 +4251,24 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="str">
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>"jing_bi",1000000</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>50</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>1000000</v>
       </c>
       <c r="G10" s="3">
@@ -3750,24 +4276,24 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="str">
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>"jing_bi",1500000</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>50</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>1500000</v>
       </c>
       <c r="G11" s="3">
@@ -3775,24 +4301,24 @@
         <v>2250000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="str">
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>"jing_bi",2000000</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>50</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>2000000</v>
       </c>
       <c r="G12" s="3">
@@ -3800,24 +4326,24 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="str">
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>"jing_bi",3000000</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>50</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>3000000</v>
       </c>
       <c r="G13" s="3">
@@ -3825,24 +4351,24 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="str">
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>"jing_bi",5000000</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>50</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>5000000</v>
       </c>
       <c r="G14" s="3">
@@ -3850,24 +4376,24 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="str">
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>"jing_bi",3000000</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>50</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>3000000</v>
       </c>
       <c r="G15" s="3">
@@ -3875,24 +4401,24 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="str">
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>"jing_bi",5000000</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>50</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>5000000</v>
       </c>
       <c r="G16" s="3">
@@ -3900,49 +4426,49 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="str">
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="str">
         <f>CONCATENATE($H$5,F17)</f>
         <v>"prop_fishbowl_stars",500000</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>100</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>500000</v>
       </c>
       <c r="G17" s="3">
-        <f>F17*1.5</f>
+        <f t="shared" si="1"/>
         <v>750000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="str">
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="str">
         <f t="shared" ref="D18:D31" si="2">CONCATENATE($H$5,F18)</f>
         <v>"prop_fishbowl_stars",800000</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>100</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>800000</v>
       </c>
       <c r="G18" s="3">
@@ -3950,24 +4476,24 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="str">
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="str">
         <f t="shared" si="2"/>
         <v>"prop_fishbowl_stars",1000000</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>100</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>1000000</v>
       </c>
       <c r="G19" s="3">
@@ -3975,24 +4501,24 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="str">
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="str">
         <f t="shared" si="2"/>
         <v>"prop_fishbowl_stars",3000000</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>100</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>3000000</v>
       </c>
       <c r="G20" s="3">
@@ -4000,24 +4526,24 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="str">
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="str">
         <f t="shared" si="2"/>
         <v>"prop_fishbowl_stars",5000000</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>100</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>5000000</v>
       </c>
       <c r="G21" s="3">
@@ -4025,24 +4551,24 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="str">
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="str">
         <f t="shared" si="2"/>
         <v>"prop_fishbowl_stars",8000000</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>100</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>8000000</v>
       </c>
       <c r="G22" s="3">
@@ -4050,24 +4576,24 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="str">
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="str">
         <f t="shared" si="2"/>
         <v>"prop_fishbowl_stars",10000000</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>100</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>10000000</v>
       </c>
       <c r="G23" s="3">
@@ -4075,24 +4601,24 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="str">
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="str">
         <f t="shared" si="2"/>
         <v>"prop_fishbowl_stars",8000000</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>100</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>8000000</v>
       </c>
       <c r="G24" s="3">
@@ -4100,24 +4626,24 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="str">
+      <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="str">
         <f t="shared" si="2"/>
         <v>"prop_fishbowl_stars",10000000</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>100</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>10000000</v>
       </c>
       <c r="G25" s="3">
@@ -4125,24 +4651,24 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="str">
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="str">
         <f t="shared" si="2"/>
         <v>"prop_fishbowl_stars",15000000</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>100</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>15000000</v>
       </c>
       <c r="G26" s="3">
@@ -4150,24 +4676,24 @@
         <v>22500000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="str">
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="str">
         <f t="shared" si="2"/>
         <v>"prop_fishbowl_stars",20000000</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>100</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>20000000</v>
       </c>
       <c r="G27" s="3">
@@ -4175,24 +4701,24 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="str">
+      <c r="B28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="str">
         <f t="shared" si="2"/>
         <v>"prop_fishbowl_stars",30000000</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>100</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>30000000</v>
       </c>
       <c r="G28" s="3">
@@ -4200,24 +4726,24 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="str">
+      <c r="B29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="str">
         <f t="shared" si="2"/>
         <v>"prop_fishbowl_stars",50000000</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>100</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>50000000</v>
       </c>
       <c r="G29" s="3">
@@ -4225,24 +4751,24 @@
         <v>75000000</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="str">
+      <c r="B30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="str">
         <f t="shared" si="2"/>
         <v>"prop_fishbowl_stars",30000000</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>100</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>30000000</v>
       </c>
       <c r="G30" s="3">
@@ -4250,24 +4776,24 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="str">
+      <c r="B31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="str">
         <f t="shared" si="2"/>
         <v>"prop_fishbowl_stars",50000000</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>100</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>50000000</v>
       </c>
       <c r="G31" s="3">
@@ -4275,21 +4801,21 @@
         <v>75000000</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="1">
-        <v>5</v>
-      </c>
-      <c r="D32" s="1" t="str">
+        <v>55</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2" t="str">
         <f>CONCATENATE($H$4,F32)</f>
         <v>"jing_bi",1666</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>100</v>
       </c>
       <c r="F32" s="3">
@@ -4299,21 +4825,21 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="1">
-        <v>5</v>
-      </c>
-      <c r="D33" s="1" t="str">
+        <v>57</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2" t="str">
         <f t="shared" ref="D33:D56" si="4">CONCATENATE($H$4,F33)</f>
         <v>"jing_bi",2666</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>100</v>
       </c>
       <c r="F33" s="3">
@@ -4323,21 +4849,21 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="1">
-        <v>5</v>
-      </c>
-      <c r="D34" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2" t="str">
         <f t="shared" si="4"/>
         <v>"jing_bi",3333</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>100</v>
       </c>
       <c r="F34" s="3">
@@ -4347,21 +4873,21 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="1">
-        <v>5</v>
-      </c>
-      <c r="D35" s="1" t="str">
+        <v>61</v>
+      </c>
+      <c r="C35" s="2">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2" t="str">
         <f t="shared" si="4"/>
         <v>"jing_bi",10000</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>100</v>
       </c>
       <c r="F35" s="3">
@@ -4372,21 +4898,21 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="1">
-        <v>5</v>
-      </c>
-      <c r="D36" s="1" t="str">
+        <v>63</v>
+      </c>
+      <c r="C36" s="2">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2" t="str">
         <f t="shared" si="4"/>
         <v>"jing_bi",16666</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>100</v>
       </c>
       <c r="F36" s="3">
@@ -4396,21 +4922,21 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="1">
-        <v>5</v>
-      </c>
-      <c r="D37" s="1" t="str">
+        <v>65</v>
+      </c>
+      <c r="C37" s="2">
+        <v>5</v>
+      </c>
+      <c r="D37" s="2" t="str">
         <f t="shared" si="4"/>
         <v>"jing_bi",26666</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>100</v>
       </c>
       <c r="F37" s="3">
@@ -4420,21 +4946,21 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="1">
-        <v>5</v>
-      </c>
-      <c r="D38" s="1" t="str">
+        <v>67</v>
+      </c>
+      <c r="C38" s="2">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2" t="str">
         <f t="shared" si="4"/>
         <v>"jing_bi",33333</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>100</v>
       </c>
       <c r="F38" s="3">
@@ -4444,21 +4970,21 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="1">
-        <v>5</v>
-      </c>
-      <c r="D39" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2" t="str">
         <f t="shared" si="4"/>
         <v>"jing_bi",16000</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>50</v>
       </c>
       <c r="F39" s="3">
@@ -4469,21 +4995,21 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="1">
-        <v>5</v>
-      </c>
-      <c r="D40" s="1" t="str">
+        <v>71</v>
+      </c>
+      <c r="C40" s="2">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2" t="str">
         <f t="shared" si="4"/>
         <v>"jing_bi",20000</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>50</v>
       </c>
       <c r="F40" s="3">
@@ -4494,21 +5020,21 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="1">
-        <v>5</v>
-      </c>
-      <c r="D41" s="1" t="str">
+        <v>73</v>
+      </c>
+      <c r="C41" s="2">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2" t="str">
         <f t="shared" si="4"/>
         <v>"jing_bi",30000</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>50</v>
       </c>
       <c r="F41" s="3">
@@ -4519,21 +5045,21 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="1">
-        <v>5</v>
-      </c>
-      <c r="D42" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="C42" s="2">
+        <v>5</v>
+      </c>
+      <c r="D42" s="2" t="str">
         <f t="shared" si="4"/>
         <v>"jing_bi",40000</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>50</v>
       </c>
       <c r="F42" s="3">
@@ -4544,21 +5070,21 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="1">
-        <v>5</v>
-      </c>
-      <c r="D43" s="1" t="str">
+        <v>77</v>
+      </c>
+      <c r="C43" s="2">
+        <v>5</v>
+      </c>
+      <c r="D43" s="2" t="str">
         <f t="shared" si="4"/>
         <v>"jing_bi",60000</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>50</v>
       </c>
       <c r="F43" s="3">
@@ -4569,21 +5095,21 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="1">
-        <v>5</v>
-      </c>
-      <c r="D44" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="C44" s="2">
+        <v>5</v>
+      </c>
+      <c r="D44" s="2" t="str">
         <f t="shared" si="4"/>
         <v>"jing_bi",100000</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>40</v>
       </c>
       <c r="F44" s="3">
@@ -4594,21 +5120,21 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="1">
-        <v>5</v>
-      </c>
-      <c r="D45" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="C45" s="2">
+        <v>5</v>
+      </c>
+      <c r="D45" s="2" t="str">
         <f t="shared" si="4"/>
         <v>"jing_bi",60000</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>40</v>
       </c>
       <c r="F45" s="3">
@@ -4619,21 +5145,21 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="1">
-        <v>5</v>
-      </c>
-      <c r="D46" s="1" t="str">
+        <v>81</v>
+      </c>
+      <c r="C46" s="2">
+        <v>5</v>
+      </c>
+      <c r="D46" s="2" t="str">
         <f t="shared" si="4"/>
         <v>"jing_bi",100000</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>40</v>
       </c>
       <c r="F46" s="3">
@@ -4644,21 +5170,21 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="1">
-        <v>5</v>
-      </c>
-      <c r="D47" s="1" t="str">
+        <v>82</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5</v>
+      </c>
+      <c r="D47" s="2" t="str">
         <f t="shared" si="4"/>
         <v>"jing_bi",37500</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="2">
         <v>15</v>
       </c>
       <c r="F47" s="3">
@@ -4669,21 +5195,21 @@
         <v>56250</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="1">
-        <v>5</v>
-      </c>
-      <c r="D48" s="1" t="str">
+        <v>84</v>
+      </c>
+      <c r="C48" s="2">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2" t="str">
         <f t="shared" si="4"/>
         <v>"jing_bi",62500</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>15</v>
       </c>
       <c r="F48" s="3">
@@ -4694,46 +5220,46 @@
         <v>93750</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="1">
-        <v>5</v>
-      </c>
-      <c r="D49" s="1" t="str">
+        <v>86</v>
+      </c>
+      <c r="C49" s="2">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>"jing_bi",100000</v>
-      </c>
-      <c r="E49" s="1">
-        <v>15</v>
+        <v>"jing_bi",500000</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2</v>
       </c>
       <c r="F49" s="3">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" si="5"/>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="1">
-        <v>5</v>
-      </c>
-      <c r="D50" s="1" t="str">
+        <v>87</v>
+      </c>
+      <c r="C50" s="2">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2" t="str">
         <f t="shared" si="4"/>
         <v>"jing_bi",50000</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>5</v>
       </c>
       <c r="F50" s="3">
@@ -4744,21 +5270,21 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="1">
-        <v>5</v>
-      </c>
-      <c r="D51" s="1" t="str">
+        <v>88</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2" t="str">
         <f t="shared" si="4"/>
         <v>"jing_bi",80000</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>5</v>
       </c>
       <c r="F51" s="3">
@@ -4769,21 +5295,21 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="1">
-        <v>5</v>
-      </c>
-      <c r="D52" s="1" t="str">
+        <v>89</v>
+      </c>
+      <c r="C52" s="2">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2" t="str">
         <f t="shared" si="4"/>
         <v>"jing_bi",100000</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <v>5</v>
       </c>
       <c r="F52" s="3">
@@ -4794,21 +5320,21 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="1">
-        <v>5</v>
-      </c>
-      <c r="D53" s="1" t="str">
+        <v>90</v>
+      </c>
+      <c r="C53" s="2">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2" t="str">
         <f t="shared" si="4"/>
         <v>"jing_bi",100000</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="2">
         <v>5</v>
       </c>
       <c r="F53" s="3">
@@ -4819,21 +5345,21 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="1">
-        <v>5</v>
-      </c>
-      <c r="D54" s="1" t="str">
+        <v>91</v>
+      </c>
+      <c r="C54" s="2">
+        <v>5</v>
+      </c>
+      <c r="D54" s="2" t="str">
         <f t="shared" si="4"/>
         <v>"jing_bi",150000</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="2">
         <v>5</v>
       </c>
       <c r="F54" s="3">
@@ -4844,21 +5370,21 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="1">
-        <v>5</v>
-      </c>
-      <c r="D55" s="1" t="str">
+        <v>93</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5</v>
+      </c>
+      <c r="D55" s="2" t="str">
         <f t="shared" si="4"/>
         <v>"jing_bi",200000</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="2">
         <v>2</v>
       </c>
       <c r="F55" s="3">
@@ -4869,540 +5395,540 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="1">
-        <v>5</v>
-      </c>
-      <c r="D56" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"jing_bi",500000</v>
-      </c>
-      <c r="E56" s="1">
-        <v>2</v>
+      <c r="C56" s="2">
+        <v>5</v>
+      </c>
+      <c r="D56" s="2" t="str">
+        <f>CONCATENATE($H$5,F56)</f>
+        <v>"prop_fishbowl_stars",16660</v>
+      </c>
+      <c r="E56" s="2">
+        <v>200</v>
       </c>
       <c r="F56" s="3">
-        <v>500000</v>
+        <v>16660</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="5"/>
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" s="1">
-        <v>5</v>
-      </c>
-      <c r="D57" s="1" t="str">
-        <f>CONCATENATE($H$5,F57)</f>
-        <v>"prop_fishbowl_stars",16660</v>
-      </c>
-      <c r="E57" s="1">
+        <v>57</v>
+      </c>
+      <c r="C57" s="2">
+        <v>5</v>
+      </c>
+      <c r="D57" s="2" t="str">
+        <f t="shared" ref="D57:D80" si="6">CONCATENATE($H$5,F57)</f>
+        <v>"prop_fishbowl_stars",26660</v>
+      </c>
+      <c r="E57" s="2">
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>16660</v>
+        <v>26660</v>
       </c>
       <c r="G57" s="3">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="1">
-        <v>5</v>
-      </c>
-      <c r="D58" s="1" t="str">
-        <f t="shared" ref="D58:D81" si="6">CONCATENATE($H$5,F58)</f>
-        <v>"prop_fishbowl_stars",26660</v>
-      </c>
-      <c r="E58" s="1">
+        <v>59</v>
+      </c>
+      <c r="C58" s="2">
+        <v>5</v>
+      </c>
+      <c r="D58" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>"prop_fishbowl_stars",33330</v>
+      </c>
+      <c r="E58" s="2">
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>26660</v>
+        <v>33330</v>
       </c>
       <c r="G58" s="3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="1">
-        <v>5</v>
-      </c>
-      <c r="D59" s="1" t="str">
+        <v>61</v>
+      </c>
+      <c r="C59" s="2">
+        <v>5</v>
+      </c>
+      <c r="D59" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>"prop_fishbowl_stars",33330</v>
-      </c>
-      <c r="E59" s="1">
+        <v>"prop_fishbowl_stars",100000</v>
+      </c>
+      <c r="E59" s="2">
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>33330</v>
+        <v>100000</v>
       </c>
       <c r="G59" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+        <f>F59*1.5</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="1">
-        <v>5</v>
-      </c>
-      <c r="D60" s="1" t="str">
+        <v>63</v>
+      </c>
+      <c r="C60" s="2">
+        <v>5</v>
+      </c>
+      <c r="D60" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>"prop_fishbowl_stars",100000</v>
-      </c>
-      <c r="E60" s="1">
+        <v>"prop_fishbowl_stars",166660</v>
+      </c>
+      <c r="E60" s="2">
         <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>100000</v>
+        <v>166660</v>
       </c>
       <c r="G60" s="3">
-        <f>F60*1.5</f>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="1">
-        <v>5</v>
-      </c>
-      <c r="D61" s="1" t="str">
+        <v>65</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>"prop_fishbowl_stars",166660</v>
-      </c>
-      <c r="E61" s="1">
+        <v>"prop_fishbowl_stars",266660</v>
+      </c>
+      <c r="E61" s="2">
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>166660</v>
+        <v>266660</v>
       </c>
       <c r="G61" s="3">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="1">
-        <v>5</v>
-      </c>
-      <c r="D62" s="1" t="str">
+        <v>67</v>
+      </c>
+      <c r="C62" s="2">
+        <v>5</v>
+      </c>
+      <c r="D62" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>"prop_fishbowl_stars",266660</v>
-      </c>
-      <c r="E62" s="1">
+        <v>"prop_fishbowl_stars",333330</v>
+      </c>
+      <c r="E62" s="2">
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>266660</v>
+        <v>333330</v>
       </c>
       <c r="G62" s="3">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="1">
-        <v>5</v>
-      </c>
-      <c r="D63" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="C63" s="2">
+        <v>5</v>
+      </c>
+      <c r="D63" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>"prop_fishbowl_stars",333330</v>
-      </c>
-      <c r="E63" s="1">
-        <v>200</v>
+        <v>"prop_fishbowl_stars",160000</v>
+      </c>
+      <c r="E63" s="2">
+        <v>100</v>
       </c>
       <c r="F63" s="3">
-        <v>333330</v>
+        <v>160000</v>
       </c>
       <c r="G63" s="3">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+        <f>F63*1.5</f>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" s="1">
-        <v>5</v>
-      </c>
-      <c r="D64" s="1" t="str">
+        <v>71</v>
+      </c>
+      <c r="C64" s="2">
+        <v>5</v>
+      </c>
+      <c r="D64" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>"prop_fishbowl_stars",160000</v>
-      </c>
-      <c r="E64" s="1">
+        <v>"prop_fishbowl_stars",200000</v>
+      </c>
+      <c r="E64" s="2">
         <v>100</v>
       </c>
       <c r="F64" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="G64" s="3">
         <f>F64*1.5</f>
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C65" s="1">
-        <v>5</v>
-      </c>
-      <c r="D65" s="1" t="str">
+        <v>73</v>
+      </c>
+      <c r="C65" s="2">
+        <v>5</v>
+      </c>
+      <c r="D65" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>"prop_fishbowl_stars",200000</v>
-      </c>
-      <c r="E65" s="1">
+        <v>"prop_fishbowl_stars",300000</v>
+      </c>
+      <c r="E65" s="2">
         <v>100</v>
       </c>
       <c r="F65" s="3">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="G65" s="3">
         <f>F65*1.5</f>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66" s="1">
-        <v>5</v>
-      </c>
-      <c r="D66" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="C66" s="2">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>"prop_fishbowl_stars",300000</v>
-      </c>
-      <c r="E66" s="1">
+        <v>"prop_fishbowl_stars",400000</v>
+      </c>
+      <c r="E66" s="2">
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="G66" s="3">
         <f>F66*1.5</f>
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" s="1">
-        <v>5</v>
-      </c>
-      <c r="D67" s="1" t="str">
+        <v>77</v>
+      </c>
+      <c r="C67" s="2">
+        <v>5</v>
+      </c>
+      <c r="D67" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>"prop_fishbowl_stars",400000</v>
-      </c>
-      <c r="E67" s="1">
+        <v>"prop_fishbowl_stars",600000</v>
+      </c>
+      <c r="E67" s="2">
         <v>100</v>
       </c>
       <c r="F67" s="3">
-        <v>400000</v>
+        <v>600000</v>
       </c>
       <c r="G67" s="3">
-        <f>F67*1.5</f>
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" ref="G67:G80" si="7">F67*1.5</f>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C68" s="1">
-        <v>5</v>
-      </c>
-      <c r="D68" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="C68" s="2">
+        <v>5</v>
+      </c>
+      <c r="D68" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>"prop_fishbowl_stars",1000000</v>
+      </c>
+      <c r="E68" s="2">
+        <v>80</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="7"/>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="2">
+        <v>5</v>
+      </c>
+      <c r="D69" s="2" t="str">
         <f t="shared" si="6"/>
         <v>"prop_fishbowl_stars",600000</v>
       </c>
-      <c r="E68" s="1">
-        <v>100</v>
-      </c>
-      <c r="F68" s="3">
+      <c r="E69" s="2">
+        <v>80</v>
+      </c>
+      <c r="F69" s="3">
         <v>600000</v>
       </c>
-      <c r="G68" s="3">
-        <f t="shared" ref="G68:G81" si="7">F68*1.5</f>
+      <c r="G69" s="3">
+        <f t="shared" si="7"/>
         <v>900000</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
-        <v>68</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69" s="1">
-        <v>5</v>
-      </c>
-      <c r="D69" s="1" t="str">
+    <row r="70" spans="1:7">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="2">
+        <v>5</v>
+      </c>
+      <c r="D70" s="2" t="str">
         <f t="shared" si="6"/>
         <v>"prop_fishbowl_stars",1000000</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E70" s="2">
         <v>80</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F70" s="3">
         <v>1000000</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G70" s="3">
         <f t="shared" si="7"/>
         <v>1500000</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
-        <v>69</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C70" s="1">
-        <v>5</v>
-      </c>
-      <c r="D70" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>"prop_fishbowl_stars",600000</v>
-      </c>
-      <c r="E70" s="1">
-        <v>80</v>
-      </c>
-      <c r="F70" s="3">
-        <v>600000</v>
-      </c>
-      <c r="G70" s="3">
-        <f t="shared" si="7"/>
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C71" s="1">
-        <v>5</v>
-      </c>
-      <c r="D71" s="1" t="str">
+        <v>82</v>
+      </c>
+      <c r="C71" s="2">
+        <v>5</v>
+      </c>
+      <c r="D71" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>"prop_fishbowl_stars",375000</v>
+      </c>
+      <c r="E71" s="2">
+        <v>30</v>
+      </c>
+      <c r="F71" s="3">
+        <v>375000</v>
+      </c>
+      <c r="G71" s="3">
+        <f t="shared" si="7"/>
+        <v>562500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="2">
+        <v>5</v>
+      </c>
+      <c r="D72" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>"prop_fishbowl_stars",625000</v>
+      </c>
+      <c r="E72" s="2">
+        <v>30</v>
+      </c>
+      <c r="F72" s="3">
+        <v>625000</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="7"/>
+        <v>937500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="2">
+        <v>5</v>
+      </c>
+      <c r="D73" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>"prop_fishbowl_stars",5000000</v>
+      </c>
+      <c r="E73" s="2">
+        <v>5</v>
+      </c>
+      <c r="F73" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="G73" s="3">
+        <f t="shared" si="7"/>
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="2">
+        <v>5</v>
+      </c>
+      <c r="D74" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>"prop_fishbowl_stars",500000</v>
+      </c>
+      <c r="E74" s="2">
+        <v>10</v>
+      </c>
+      <c r="F74" s="3">
+        <v>500000</v>
+      </c>
+      <c r="G74" s="3">
+        <f t="shared" si="7"/>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="2">
+        <v>5</v>
+      </c>
+      <c r="D75" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>"prop_fishbowl_stars",800000</v>
+      </c>
+      <c r="E75" s="2">
+        <v>10</v>
+      </c>
+      <c r="F75" s="3">
+        <v>800000</v>
+      </c>
+      <c r="G75" s="3">
+        <f t="shared" si="7"/>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" s="2">
+        <v>5</v>
+      </c>
+      <c r="D76" s="2" t="str">
         <f t="shared" si="6"/>
         <v>"prop_fishbowl_stars",1000000</v>
       </c>
-      <c r="E71" s="1">
-        <v>80</v>
-      </c>
-      <c r="F71" s="3">
+      <c r="E76" s="2">
+        <v>10</v>
+      </c>
+      <c r="F76" s="3">
         <v>1000000</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G76" s="3">
         <f t="shared" si="7"/>
         <v>1500000</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
-        <v>71</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C72" s="1">
-        <v>5</v>
-      </c>
-      <c r="D72" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>"prop_fishbowl_stars",375000</v>
-      </c>
-      <c r="E72" s="1">
-        <v>30</v>
-      </c>
-      <c r="F72" s="3">
-        <v>375000</v>
-      </c>
-      <c r="G72" s="3">
-        <f t="shared" si="7"/>
-        <v>562500</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
-        <v>72</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C73" s="1">
-        <v>5</v>
-      </c>
-      <c r="D73" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>"prop_fishbowl_stars",625000</v>
-      </c>
-      <c r="E73" s="1">
-        <v>30</v>
-      </c>
-      <c r="F73" s="3">
-        <v>625000</v>
-      </c>
-      <c r="G73" s="3">
-        <f t="shared" si="7"/>
-        <v>937500</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
-        <v>73</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C74" s="1">
-        <v>5</v>
-      </c>
-      <c r="D74" s="1" t="str">
+    <row r="77" spans="1:7">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" s="2">
+        <v>5</v>
+      </c>
+      <c r="D77" s="2" t="str">
         <f t="shared" si="6"/>
         <v>"prop_fishbowl_stars",1000000</v>
       </c>
-      <c r="E74" s="1">
-        <v>30</v>
-      </c>
-      <c r="F74" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="G74" s="3">
-        <f t="shared" si="7"/>
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
-        <v>74</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C75" s="1">
-        <v>5</v>
-      </c>
-      <c r="D75" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>"prop_fishbowl_stars",500000</v>
-      </c>
-      <c r="E75" s="1">
-        <v>10</v>
-      </c>
-      <c r="F75" s="3">
-        <v>500000</v>
-      </c>
-      <c r="G75" s="3">
-        <f t="shared" si="7"/>
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
-        <v>75</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C76" s="1">
-        <v>5</v>
-      </c>
-      <c r="D76" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>"prop_fishbowl_stars",800000</v>
-      </c>
-      <c r="E76" s="1">
-        <v>10</v>
-      </c>
-      <c r="F76" s="3">
-        <v>800000</v>
-      </c>
-      <c r="G76" s="3">
-        <f t="shared" si="7"/>
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
-        <v>76</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C77" s="1">
-        <v>5</v>
-      </c>
-      <c r="D77" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>"prop_fishbowl_stars",1000000</v>
-      </c>
-      <c r="E77" s="1">
+      <c r="E77" s="2">
         <v>10</v>
       </c>
       <c r="F77" s="3">
@@ -5413,262 +5939,213 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C78" s="1">
-        <v>5</v>
-      </c>
-      <c r="D78" s="1" t="str">
+        <v>91</v>
+      </c>
+      <c r="C78" s="2">
+        <v>5</v>
+      </c>
+      <c r="D78" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>"prop_fishbowl_stars",1000000</v>
-      </c>
-      <c r="E78" s="1">
+        <v>"prop_fishbowl_stars",1500000</v>
+      </c>
+      <c r="E78" s="2">
         <v>10</v>
       </c>
       <c r="F78" s="3">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="G78" s="3">
         <f t="shared" si="7"/>
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C79" s="1">
-        <v>5</v>
-      </c>
-      <c r="D79" s="1" t="str">
+        <v>93</v>
+      </c>
+      <c r="C79" s="2">
+        <v>5</v>
+      </c>
+      <c r="D79" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>"prop_fishbowl_stars",1500000</v>
-      </c>
-      <c r="E79" s="1">
-        <v>10</v>
+        <v>"prop_fishbowl_stars",2000000</v>
+      </c>
+      <c r="E79" s="2">
+        <v>5</v>
       </c>
       <c r="F79" s="3">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="G79" s="3">
         <f t="shared" si="7"/>
-        <v>2250000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
-        <v>79</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C80" s="1">
-        <v>5</v>
-      </c>
-      <c r="D80" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>"prop_fishbowl_stars",2000000</v>
-      </c>
-      <c r="E80" s="1">
-        <v>5</v>
-      </c>
-      <c r="F80" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="G80" s="3">
-        <f t="shared" si="7"/>
         <v>3000000</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
-        <v>80</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C81" s="1">
-        <v>5</v>
-      </c>
-      <c r="D81" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>"prop_fishbowl_stars",5000000</v>
-      </c>
-      <c r="E81" s="1">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>5000000</v>
-      </c>
-      <c r="G81" s="3">
-        <f t="shared" si="7"/>
-        <v>7500000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
+      <c r="A80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="94.5" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="C2" s="3">
         <v>5000</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C3" s="3">
         <v>10000</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>